--- a/3/data.xlsx
+++ b/3/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/alotaima/CS-475/2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iamlotaibi/Desktop/CS-475/3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89932820-3B63-6C4C-A53D-9769856D7964}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9603A19-3EEC-194F-A591-B6C64D7DC18C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="16800" windowHeight="20560"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="16800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Coarse-Static</t>
+    <t>Fix-2-1</t>
   </si>
   <si>
-    <t>Coarse-Dynamic</t>
+    <t>Fix-2-2</t>
   </si>
   <si>
-    <t>Fine-Static</t>
+    <t>Fix-2-4</t>
   </si>
   <si>
-    <t>Fine-Dynamic</t>
+    <t>Fix-1-1</t>
+  </si>
+  <si>
+    <t>Fix-1-2</t>
+  </si>
+  <si>
+    <t>Fix-1-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -590,6 +596,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. NUM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -623,7 +659,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -634,7 +670,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Coarse-Static</c:v>
+                  <c:v>Fix-1-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -665,54 +701,114 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$7</c:f>
+              <c:f>data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$B$2:$B$7</c:f>
+              <c:f>data!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>17.510000000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.92</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.95</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.94</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.93</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.77</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,7 +816,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B47-AB45-9515-68B68E545C27}"/>
+              <c16:uniqueId val="{00000000-5591-1E4E-94C8-FDD03B66B10D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -733,7 +829,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Coarse-Dynamic</c:v>
+                  <c:v>Fix-1-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -764,54 +860,114 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$7</c:f>
+              <c:f>data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$C$2:$C$7</c:f>
+              <c:f>data!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>17.22</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.88</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.08</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.819999999999993</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.47</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.85</c:v>
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +975,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0B47-AB45-9515-68B68E545C27}"/>
+              <c16:uniqueId val="{00000001-5591-1E4E-94C8-FDD03B66B10D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -832,7 +988,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fine-Static</c:v>
+                  <c:v>Fix-1-4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -863,54 +1019,114 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$7</c:f>
+              <c:f>data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$7</c:f>
+              <c:f>data!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>15.97</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.29</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.78</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6300000000000008</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.36</c:v>
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +1134,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0B47-AB45-9515-68B68E545C27}"/>
+              <c16:uniqueId val="{00000002-5591-1E4E-94C8-FDD03B66B10D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -931,7 +1147,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fine-Dynamic</c:v>
+                  <c:v>Fix-2-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -962,54 +1178,114 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$7</c:f>
+              <c:f>data!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$E$2:$E$7</c:f>
+              <c:f>data!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>11.58</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.27</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.65</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.89</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.32</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,7 +1293,325 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0B47-AB45-9515-68B68E545C27}"/>
+              <c16:uniqueId val="{00000003-5591-1E4E-94C8-FDD03B66B10D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-2-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5591-1E4E-94C8-FDD03B66B10D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-2-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5591-1E4E-94C8-FDD03B66B10D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1031,11 +1625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="717184719"/>
-        <c:axId val="717186415"/>
+        <c:axId val="675874320"/>
+        <c:axId val="675876016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="717184719"/>
+        <c:axId val="675874320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1656,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t># of Threads</a:t>
+                  <a:t>NUM</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1133,7 +1727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717186415"/>
+        <c:crossAx val="675876016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1141,7 +1735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="717186415"/>
+        <c:axId val="675876016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,10 +1775,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t>MegaBodies Compared Per Second</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1248,7 +1841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717184719"/>
+        <c:crossAx val="675874320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1276,6 +1869,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1292,7 +1888,1753 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. NUM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-1-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-092A-CD48-AC55-97BAB35A8E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-1-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-092A-CD48-AC55-97BAB35A8E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-1-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-092A-CD48-AC55-97BAB35A8E99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="675874320"/>
+        <c:axId val="675876016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="675874320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NUM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675876016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="675876016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675874320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. NUM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-2-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5448-5840-B0F6-4B406C654C70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-2-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5448-5840-B0F6-4B406C654C70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-2-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5448-5840-B0F6-4B406C654C70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="675874320"/>
+        <c:axId val="675876016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="675874320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NUM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675876016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="675876016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675874320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1375,6 +3717,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1878,27 +4300,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>522111</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166511</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>810559</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138953</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCC52F7-DCDA-B647-A1D0-B34B4E497211}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD2B4D9-4545-FF4B-A9BE-BEF62DA8C822}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,6 +5339,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>420220</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>491191</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9E5990-45D3-8A4D-A6D7-F890AF7515AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>606986</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>18677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>677957</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91142</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB726C7-994E-084A-8A6D-A2ED04B78A32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2215,11 +5719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="136" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2228,120 +5732,392 @@
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.06</v>
+      </c>
+      <c r="D2">
+        <v>0.68</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1.98</v>
+      </c>
+      <c r="G2">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.73</v>
+      </c>
+      <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1.97</v>
+      </c>
+      <c r="G3">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.25</v>
+      </c>
+      <c r="D4">
+        <v>0.86</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1.98</v>
+      </c>
+      <c r="G4">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.98</v>
+      </c>
+      <c r="D5">
+        <v>0.98</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1.97</v>
+      </c>
+      <c r="G5">
+        <v>3.71</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>17.510000000000002</v>
-      </c>
-      <c r="C2">
-        <v>17.22</v>
-      </c>
-      <c r="D2">
-        <v>15.97</v>
-      </c>
-      <c r="E2">
-        <v>11.58</v>
+      <c r="C6">
+        <v>1.98</v>
+      </c>
+      <c r="D6">
+        <v>0.92</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1.98</v>
+      </c>
+      <c r="G6">
+        <v>3.73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>33.92</v>
-      </c>
-      <c r="C3">
-        <v>29.88</v>
-      </c>
-      <c r="D3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E3">
-        <v>10.27</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.98</v>
+      </c>
+      <c r="D7">
+        <v>1.06</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1.98</v>
+      </c>
+      <c r="G7">
+        <v>3.71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>53.95</v>
-      </c>
-      <c r="C4">
-        <v>56.08</v>
-      </c>
-      <c r="D4">
-        <v>24.29</v>
-      </c>
-      <c r="E4">
-        <v>9.65</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.98</v>
+      </c>
+      <c r="D8">
+        <v>0.96</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1.97</v>
+      </c>
+      <c r="G8">
+        <v>3.74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1.98</v>
+      </c>
+      <c r="D9">
+        <v>1.39</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1.98</v>
+      </c>
+      <c r="G9">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>76.94</v>
-      </c>
-      <c r="C5">
-        <v>74.819999999999993</v>
-      </c>
-      <c r="D5">
-        <v>15.78</v>
-      </c>
-      <c r="E5">
-        <v>8.89</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.97</v>
+      </c>
+      <c r="D10">
+        <v>1.48</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1.98</v>
+      </c>
+      <c r="G10">
+        <v>3.73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>109.93</v>
-      </c>
-      <c r="C6">
-        <v>49.47</v>
-      </c>
-      <c r="D6">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="E6">
-        <v>5.2</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.98</v>
+      </c>
+      <c r="D11">
+        <v>1.32</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1.98</v>
+      </c>
+      <c r="G11">
+        <v>3.76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>31.77</v>
-      </c>
-      <c r="C7">
-        <v>28.85</v>
-      </c>
-      <c r="D7">
-        <v>1.36</v>
-      </c>
-      <c r="E7">
-        <v>1.32</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.98</v>
+      </c>
+      <c r="D12">
+        <v>1.38</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1.99</v>
+      </c>
+      <c r="G12">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1.98</v>
+      </c>
+      <c r="D13">
+        <v>1.72</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1.98</v>
+      </c>
+      <c r="G13">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.98</v>
+      </c>
+      <c r="D14">
+        <v>2.1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1.98</v>
+      </c>
+      <c r="G14">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1.98</v>
+      </c>
+      <c r="D15">
+        <v>3.75</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1.98</v>
+      </c>
+      <c r="G15">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1.98</v>
+      </c>
+      <c r="D16">
+        <v>3.71</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1.98</v>
+      </c>
+      <c r="G16">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.98</v>
+      </c>
+      <c r="D17">
+        <v>3.71</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1.98</v>
+      </c>
+      <c r="G17">
+        <v>3.72</v>
       </c>
     </row>
   </sheetData>
